--- a/static/documents/data.xlsx
+++ b/static/documents/data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,27 +412,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suresh</t>
+          <t>K sowjanya</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Surarm</t>
+          <t>Gajularamaram</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9299350052</v>
+        <v>7995592704</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>110 Seconds</t>
+          <t>105 Seconds</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1687</v>
+        <v>11881</v>
       </c>
     </row>
     <row r="3">
@@ -444,27 +444,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>srinivas</t>
+          <t>Kancharla Anusha</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Suraram</t>
+          <t>Rajiv gruha kalpa -77/7 , suraram colony.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9949702217</v>
+        <v>9989276390</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>190 Seconds</t>
+          <t>106 Seconds</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1231</v>
+        <v>11866</v>
       </c>
     </row>
     <row r="4">
@@ -476,27 +476,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sharath</t>
+          <t>Priya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Machara</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1234567890</v>
+        <v>9959266640</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8 Seconds</t>
+          <t>133 Seconds</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>640</v>
+        <v>11845</v>
       </c>
     </row>
     <row r="5">
@@ -508,27 +508,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>Ch.chaitanya</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>dD</t>
+          <t>Bapatla</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9299999999</v>
+        <v>6300551790</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>380 Seconds</t>
+          <t>169 Seconds</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>602</v>
+        <v>11812</v>
       </c>
     </row>
     <row r="6">
@@ -540,27 +540,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chumana</t>
+          <t>Deepika</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Vinayak nagar, quthubullapur, Hyderabad</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9030178193</v>
+        <v>9866761743</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>185 Seconds</t>
+          <t>184 Seconds</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>599</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="7">
@@ -572,27 +572,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fsg</t>
+          <t>Akkina jevana jyothi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ssg</t>
+          <t>Rajahmundary</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8955555555</v>
+        <v>6302749117</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>696 Seconds</t>
+          <t>193 Seconds</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>476</v>
+        <v>11781</v>
       </c>
     </row>
     <row r="8">
@@ -604,27 +604,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Y. Sunitha</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Suraram</t>
+          <t>Ganapavaram</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9949702218</v>
+        <v>9908968888</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>332 Seconds</t>
+          <t>131 Seconds</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>469</v>
+        <v>11239</v>
       </c>
     </row>
     <row r="9">
@@ -636,27 +636,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>VIJAY</t>
+          <t>Manikya</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Suraram</t>
+          <t>Greenhills</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9533066559</v>
+        <v>9177227737</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>83 Seconds</t>
+          <t>244 Seconds</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>318</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="10">
@@ -668,27 +668,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Vallirani</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9393020006</v>
+        <v>4571336545</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30 Seconds</t>
+          <t>124 Seconds</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>298</v>
+        <v>10626</v>
       </c>
     </row>
     <row r="11">
@@ -700,27 +700,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Honey</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>Chintal</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8498465155</v>
+        <v>8297308234</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>537 Seconds</t>
+          <t>202 Seconds</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>158</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="12">
@@ -732,27 +732,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mounika kalakonda</t>
+          <t>I. Balu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Surarmcoloney</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9849199422</v>
+        <v>7032738373</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0 Seconds</t>
+          <t>153 Seconds</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>10566</v>
       </c>
     </row>
     <row r="13">
@@ -764,27 +764,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Suresh</t>
+          <t>Sowmya Nayana</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ram</t>
+          <t>Jadcherla</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9263528262</v>
+        <v>9640034599</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>66 Seconds</t>
+          <t>133 Seconds</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="14">
@@ -796,27 +796,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>raj</t>
+          <t>Suresh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>secunderabad</t>
+          <t>Vanukuru</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9177112955</v>
+        <v>9603096805</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0 Seconds</t>
+          <t>221 Seconds</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9912</v>
       </c>
     </row>
     <row r="15">
@@ -828,26 +828,3578 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>hlu</t>
+          <t>à°¸à°¿à°¹à±à°à± à°à°¾à°à°¬à±</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jfj</t>
+          <t>à°à±à°à°à±à°°à±</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9988888888</v>
+        <v>9030032525</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0 Seconds</t>
+          <t>236 Seconds</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pushpalatha</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>chinaparimi</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7671890893</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>141 Seconds</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>K vanitha</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>HAL Colony gajularamaram</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>9293928044</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>221 Seconds</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Santhoshkumar</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Medak (nagapur)village</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>8523814805</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>197 Seconds</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P.mariyadasu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dharanikota</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7330640237</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>167 Seconds</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SAMBADU</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NARAVA,VIZAG</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>9908136020</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>221 Seconds</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D rajya lakshmi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gajularamaram</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>8185854454</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>191 Seconds</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>à°°à°à°¿à°¤ à°à±à°®à°¾à°°à°¿</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>à°¸à°à°à°¾à°°à±à°¡à±à°¡à°¿</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>9014486524</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>154 Seconds</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>K Nikhil</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Suraram colony</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>9392724802</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>161 Seconds</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Puli.Ramesh babu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mandadam</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8801199914</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>128 Seconds</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Samuel Paul</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Suraram coloney</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>7095404424</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>188 Seconds</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ramesh G</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Akividu</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>9966556555</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>119 Seconds</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Y.Mahima Jyothi</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ganapavaram</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>7386919166</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>111 Seconds</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Madhusudhanarao. B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Visakhapatnam</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>9885718901</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>150 Seconds</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rajkumar. K</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>D P. COLONY</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>8008530814</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>175 Seconds</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sandhya</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Jagathgarigutta</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>9573760029</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>331 Seconds</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Soujanya</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Karimnagar</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>9182773229</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>348 Seconds</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sumathi</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Beeramguda</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6300560169</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>181 Seconds</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PEDDA RAJU</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kurnool</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>9494939460</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>108 Seconds</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Nikhil</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Suraram</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>9390080456</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>162 Seconds</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Sailu</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Padamati palam</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>9640619068</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>127 Seconds</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Prabhu kumari</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Rajahmundry</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>7093647414</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>67 Seconds</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>sreenivas</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>503475207</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>455 Seconds</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M.Narasappa</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Enigabala</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>8886285125</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>118 Seconds</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>G K kumar</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Guntur</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>8500720085</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>189 Seconds</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mary gold</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tuni</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>9381541177</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>96 Seconds</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Saibabanagar</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>8464037675</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>29 Seconds</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Hemanth</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Palakollu</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>9494296097</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>13 Seconds</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Gugulothu Gnaneshwar</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Lingam pally</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>9849375597</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>115 Seconds</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M. Paulraju</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Irlapadu</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>9701788396</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>60 Seconds</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>P n raju</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>sathupalli</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>9949228806</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>164 Seconds</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>s.prakash babu</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>visakhapatnam</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>9652278570</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>499 Seconds</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>T Prabhu Teja</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Surarum colony</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>9381688127</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>51 Seconds</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bowrampet</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>7416161588</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>74 Seconds</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rukesh</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Veerannapalem</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>9014378416</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>39 Seconds</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Suresh</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>à°à°°à±à°à°¨à°à°°à±</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>9963570451</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>66 Seconds</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Subhashini</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ulavapadu,Ongole</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>8977524448</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>96 Seconds</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>T. Tabitha</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Kadiyam (Rajahmundry)</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>9613338444</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>49 Seconds</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Clemency</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>8080724344</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>G.baby</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Rajeeve Gandhi nagar</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>9989887256</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Disha</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Rajiv Griha Kalpa</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>9618842385</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Nissy Nicy</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Rajamundry</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>9160389173</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>HANNA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NIRMAL</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>8790987788</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ashwini</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kukatpally allwyn colony</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>8885302347</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Xyz</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Xx</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>9847926499</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>210 Seconds</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>N BARNABAS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MARKAPUR</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>8328103805</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>G.rachal</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rajeeve Gandhi nagar</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>6304520648</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ch.syam kuamr</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Makavarapalem</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>7382916643</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>rajesh</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>hyd</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4546546465</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Nissy Jasper</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Shapur Nagar</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>8121850642</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Megha</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Medchal</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>9985237196</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K.P.H.B 4TH PHASE</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>8686942967</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Kakada Ravi kumar</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Mulapeta</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>9502516153</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Bb</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>9876543210</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Kakada sudha rani</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mulapeta</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>9505146197</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>VUNDRATHI RAVI</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Warangal</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>9701013312</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Chandu John</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Perakalapadu</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>7993945699</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Hima</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MBNR</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>7995556367</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Hendry</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Kazipet</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>9849440973</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>à°à°¿ à°¶à±à°¤à°¿</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>à°à°³à±à°²à°à°¡à±à°¡ à°à±à°°à°¾à°®à°</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>9963854881</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>30 Seconds</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Nireekhan</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Vanukuru</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>9154984349</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Jajula Suvarna raj</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Paithara</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>7093897231</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Pairdha Babi</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Amaravathi village</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>7893663717</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>30 Seconds</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Aruna Jyothi.P</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>8978456681</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Karuna</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Kaza</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>9989463010</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Deena Christy</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Bombay</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>9028669214</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>M.suresh</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>srikakulam</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>9381822463</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>18 Seconds</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BHARGAVA CHEPPALA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lagadapadu</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>8501836376</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DANIEL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>9700123204</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HOSANNA NUNE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ADDANKI</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>9398424934</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>M.moses</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Vijayawada</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>8688905686</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Pavan peter's</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Nandigama</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>9640808054</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>à°®à°¨à°¿à°·à±</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Matherimitta</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>9963843207</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>33 Seconds</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>M.Mahendar</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Paithara</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>9182505018</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Keerthana</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Patancharu</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>8465914118</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sriram ayodhya</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Tenali daggara kollipara</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>8985320566</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>23 Seconds</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>N.jyothi</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>yanamadala</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>9014806146</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Puli vinod kumar</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Singanapalle</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>9515210187</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rakesh</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Saibaba nagar</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>9989516647</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mahesh</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>A konduru</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>9010789902</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>sajan</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>9014237426</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>M.Hemanth</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Vijayawada</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>9951886789</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>M Swarnakala</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Suraram colony</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>9989627907</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Midde Andrew</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Kamareddy</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>9491621807</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Meghana</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>8096328176</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Chakravarthi</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Kurnool</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>9989940004</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>à°ªà±à°°à±à°®à± à°°à°¾à°à±</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>à°à±à°¡à°¿à°®à±à°à±à°²</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>9494283547</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>D somaraj</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Vadalakunta</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>8688707929</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>S. Harshitha</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Suraram. Colony</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>6305365766</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Deepikathomas</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Prakasam</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>8897030827</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>3 Seconds</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Srikakulam</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>9177023792</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Konala Vijay Krishna</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Ravulapalem</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>9954247254</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Raju</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Gadwal</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>9440422175</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>K. Venkateswarao</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Krishna district, avanigadda, mandapakala</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>9603392866</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sevak</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ghanpur station</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>9390034777</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Kruparamesh</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Narsipatnam</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>8500935133</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Premanandam</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Doulthabad</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>9704274787</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Praveen</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Khammam</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>9504173381</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>N. Suresh</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Guntur</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>9398311770</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>B Raja Babu</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Suraramcolony</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>8247607016</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Glory</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Dilskhnagar</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>9441511698</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Divya</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Medak</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>7995600104</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Inakollu Charles</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Bollarm Hyderabad</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>9000113459</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Praveen</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Khammam</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>9505173381</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Salman Raju Mathe</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Suraram Colony</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>9849434464</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Wilson k</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>9172337667</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Philip Erwin</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>BHEL</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>7799125476</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>shailaja bhogal</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>raipur</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>7024059117</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Krupakar</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Uppal</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>9885829980</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rajakumari. K. L</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Madanapalli</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>9032366215</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>M. Mary Aruna</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Vizianagaram</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>9347254334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0 Seconds</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
         <v>0</v>
       </c>
     </row>
